--- a/Spreadsheet&Access3.0/02_함수/02_함수(20문제).xlsx
+++ b/Spreadsheet&Access3.0/02_함수/02_함수(20문제).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mondi\Desktop\Craftsman_Information_Processing\Spreadsheet&amp;Access3.0\02_함수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D829E72-B6E6-4690-B8AA-3AF1EE5E6F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3036F8-D387-4DB0-B026-49D47D92B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="0" windowWidth="12443" windowHeight="12863" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈" sheetId="46" r:id="rId1"/>
@@ -6393,7 +6393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -8001,7 +8001,7 @@
         <v>기본형-여자</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E4:E39" si="1">INDEX($K$12:$R$15,MATCH(C5,$J$12:$J$15,0),MATCH(B5,$K$10:$Q$10,1))</f>
+        <f t="shared" ref="E5:E39" si="1">INDEX($K$12:$R$15,MATCH(C5,$J$12:$J$15,0),MATCH(B5,$K$10:$Q$10,1))</f>
         <v>22500</v>
       </c>
       <c r="F5" s="1">
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H4:H39" si="2">TEXT(HLOOKUP(B6,$K$10:$R$15,MATCH(C6,$J$12:$J$15,0)+2,1)*G6/100,"[=0]없음;[&gt;0]0원")</f>
+        <f t="shared" ref="H6:H39" si="2">TEXT(HLOOKUP(B6,$K$10:$R$15,MATCH(C6,$J$12:$J$15,0)+2,1)*G6/100,"[=0]없음;[&gt;0]0원")</f>
         <v>없음</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -9359,7 +9359,7 @@
   <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -9442,7 +9442,10 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="str">
+        <f>IF(ISERROR(MATCH(B4,$M$4:$M$7,0)),"아니오","예")</f>
+        <v>예</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
@@ -9452,11 +9455,17 @@
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="str">
+        <f>IFERROR(REPLACE(VLOOKUP(G4,$P$4:$Q$9,2,0),5,2,"○●"),"")</f>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I4" s="3">
         <v>612700</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="str">
+        <f>LEFT(E4,2) &amp; "(" &amp; COUNTIF($E$4:E4,E4) &amp; ")"</f>
+        <v>일반(1)</v>
+      </c>
       <c r="M4" s="28" t="s">
         <v>28</v>
       </c>
@@ -9478,7 +9487,10 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ref="D5:D42" si="0">IF(ISERROR(MATCH(B5,$M$4:$M$7,0)),"아니오","예")</f>
+        <v>예</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
@@ -9488,11 +9500,17 @@
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="str">
+        <f t="shared" ref="H5:H42" si="1">IFERROR(REPLACE(VLOOKUP(G5,$P$4:$Q$9,2,0),5,2,"○●"),"")</f>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I5" s="3">
         <v>13000</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="str">
+        <f>LEFT(E5,2) &amp; "(" &amp; COUNTIF($E$4:E5,E5) &amp; ")"</f>
+        <v>신용(1)</v>
+      </c>
       <c r="M5" s="28" t="s">
         <v>14</v>
       </c>
@@ -9514,7 +9532,10 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
@@ -9524,11 +9545,17 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I6" s="3">
         <v>46000</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="str">
+        <f>LEFT(E6,2) &amp; "(" &amp; COUNTIF($E$4:E6,E6) &amp; ")"</f>
+        <v>신용(2)</v>
+      </c>
       <c r="M6" s="29" t="s">
         <v>34</v>
       </c>
@@ -9550,7 +9577,10 @@
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
@@ -9560,11 +9590,17 @@
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I7" s="3">
         <v>3000</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="str">
+        <f>LEFT(E7,2) &amp; "(" &amp; COUNTIF($E$4:E7,E7) &amp; ")"</f>
+        <v>현금(1)</v>
+      </c>
       <c r="M7" s="29" t="s">
         <v>30</v>
       </c>
@@ -9586,7 +9622,10 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
@@ -9596,11 +9635,17 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I8" s="3">
         <v>536790</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="str">
+        <f>LEFT(E8,2) &amp; "(" &amp; COUNTIF($E$4:E8,E8) &amp; ")"</f>
+        <v>신용(3)</v>
+      </c>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
@@ -9618,7 +9663,10 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
@@ -9628,11 +9676,17 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I9" s="3">
         <v>1738200</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="str">
+        <f>LEFT(E9,2) &amp; "(" &amp; COUNTIF($E$4:E9,E9) &amp; ")"</f>
+        <v>신용(4)</v>
+      </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
@@ -9650,7 +9704,10 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
@@ -9660,11 +9717,17 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I10" s="3">
         <v>23520</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8" t="str">
+        <f>LEFT(E10,2) &amp; "(" &amp; COUNTIF($E$4:E10,E10) &amp; ")"</f>
+        <v>신용(5)</v>
+      </c>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
@@ -9678,7 +9741,10 @@
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
@@ -9688,11 +9754,17 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I11" s="3">
         <v>58600</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="str">
+        <f>LEFT(E11,2) &amp; "(" &amp; COUNTIF($E$4:E11,E11) &amp; ")"</f>
+        <v>일반(2)</v>
+      </c>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
@@ -9706,7 +9778,10 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
@@ -9716,11 +9791,17 @@
       <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I12" s="3">
         <v>117840</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8" t="str">
+        <f>LEFT(E12,2) &amp; "(" &amp; COUNTIF($E$4:E12,E12) &amp; ")"</f>
+        <v>일반(3)</v>
+      </c>
       <c r="M12" s="27" t="s">
         <v>97</v>
       </c>
@@ -9738,7 +9819,10 @@
       <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
@@ -9748,11 +9832,17 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I13" s="3">
         <v>220000</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="str">
+        <f>LEFT(E13,2) &amp; "(" &amp; COUNTIF($E$4:E13,E13) &amp; ")"</f>
+        <v>지정(1)</v>
+      </c>
       <c r="M13" s="26" t="s">
         <v>98</v>
       </c>
@@ -9774,7 +9864,10 @@
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
@@ -9784,17 +9877,32 @@
       <c r="G14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I14" s="3">
         <v>44700</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="str">
+        <f>LEFT(E14,2) &amp; "(" &amp; COUNTIF($E$4:E14,E14) &amp; ")"</f>
+        <v>일반(4)</v>
+      </c>
       <c r="M14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="N14" s="31">
+        <f>IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,N$13),-2),"")</f>
+        <v>4948700</v>
+      </c>
+      <c r="O14" s="31">
+        <f t="shared" ref="O14:P16" si="2">IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,O$13),-2),"")</f>
+        <v>79900</v>
+      </c>
+      <c r="P14" s="31">
+        <f t="shared" si="2"/>
+        <v>30600</v>
+      </c>
       <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="2:17">
@@ -9804,7 +9912,10 @@
       <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
@@ -9814,17 +9925,32 @@
       <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I15" s="3">
         <v>88400</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="str">
+        <f>LEFT(E15,2) &amp; "(" &amp; COUNTIF($E$4:E15,E15) &amp; ")"</f>
+        <v>일반(5)</v>
+      </c>
       <c r="M15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="N15" s="31">
+        <f t="shared" ref="N15:N16" si="3">IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M15,$F$4:$F$42,N$13),-2),"")</f>
+        <v>189000</v>
+      </c>
+      <c r="O15" s="31">
+        <f t="shared" si="2"/>
+        <v>94700</v>
+      </c>
+      <c r="P15" s="31">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
       <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="2:17">
@@ -9834,7 +9960,10 @@
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
@@ -9844,17 +9973,32 @@
       <c r="G16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I16" s="3">
         <v>107190</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="str">
+        <f>LEFT(E16,2) &amp; "(" &amp; COUNTIF($E$4:E16,E16) &amp; ")"</f>
+        <v>일반(6)</v>
+      </c>
       <c r="M16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="N16" s="31">
+        <f t="shared" si="3"/>
+        <v>130900</v>
+      </c>
+      <c r="O16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="2:17">
@@ -9864,7 +10008,10 @@
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
@@ -9874,11 +10021,17 @@
       <c r="G17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I17" s="3">
         <v>360600</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="str">
+        <f>LEFT(E17,2) &amp; "(" &amp; COUNTIF($E$4:E17,E17) &amp; ")"</f>
+        <v>일반(7)</v>
+      </c>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -9892,7 +10045,10 @@
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
@@ -9902,11 +10058,17 @@
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I18" s="3">
         <v>145000</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="str">
+        <f>LEFT(E18,2) &amp; "(" &amp; COUNTIF($E$4:E18,E18) &amp; ")"</f>
+        <v>현금(2)</v>
+      </c>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
@@ -9920,7 +10082,10 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
@@ -9930,11 +10095,17 @@
       <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I19" s="3">
         <v>231000</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8" t="str">
+        <f>LEFT(E19,2) &amp; "(" &amp; COUNTIF($E$4:E19,E19) &amp; ")"</f>
+        <v>현금(3)</v>
+      </c>
       <c r="M19" s="32" t="s">
         <v>100</v>
       </c>
@@ -9950,7 +10121,10 @@
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
@@ -9960,11 +10134,17 @@
       <c r="G20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I20" s="3">
         <v>50620</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8" t="str">
+        <f>LEFT(E20,2) &amp; "(" &amp; COUNTIF($E$4:E20,E20) &amp; ")"</f>
+        <v>일반(8)</v>
+      </c>
       <c r="M20" s="26" t="s">
         <v>101</v>
       </c>
@@ -9981,7 +10161,10 @@
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
@@ -9991,15 +10174,24 @@
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I21" s="3">
         <v>46360</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="str">
+        <f>LEFT(E21,2) &amp; "(" &amp; COUNTIF($E$4:E21,E21) &amp; ")"</f>
+        <v>직불(1)</v>
+      </c>
       <c r="M21" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="33" t="str">
+        <f>REPT("▣",COUNTIF($C$4:$C$42,M21)/COUNTA($C$4:$C$42)*10) &amp; "(" &amp; TEXT(COUNTIF($C$4:$C$42,M21)/COUNTA($C$4:$C$42),"0.00%") &amp; ")"</f>
+        <v>▣▣▣▣(41.03%)</v>
+      </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
     </row>
@@ -10010,7 +10202,10 @@
       <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>32</v>
       </c>
@@ -10020,15 +10215,24 @@
       <c r="G22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I22" s="3">
         <v>143040</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8" t="str">
+        <f>LEFT(E22,2) &amp; "(" &amp; COUNTIF($E$4:E22,E22) &amp; ")"</f>
+        <v>직불(2)</v>
+      </c>
       <c r="M22" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="33"/>
+      <c r="N22" s="33" t="str">
+        <f t="shared" ref="N22:N24" si="4">REPT("▣",COUNTIF($C$4:$C$42,M22)/COUNTA($C$4:$C$42)*10) &amp; "(" &amp; TEXT(COUNTIF($C$4:$C$42,M22)/COUNTA($C$4:$C$42),"0.00%") &amp; ")"</f>
+        <v>▣(10.26%)</v>
+      </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
     </row>
@@ -10039,7 +10243,10 @@
       <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>32</v>
       </c>
@@ -10049,15 +10256,24 @@
       <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I23" s="3">
         <v>138660</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8" t="str">
+        <f>LEFT(E23,2) &amp; "(" &amp; COUNTIF($E$4:E23,E23) &amp; ")"</f>
+        <v>직불(3)</v>
+      </c>
       <c r="M23" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="33"/>
+      <c r="N23" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>▣▣(23.08%)</v>
+      </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
     </row>
@@ -10068,7 +10284,10 @@
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
@@ -10078,15 +10297,24 @@
       <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I24" s="3">
         <v>239250</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8" t="str">
+        <f>LEFT(E24,2) &amp; "(" &amp; COUNTIF($E$4:E24,E24) &amp; ")"</f>
+        <v>직불(4)</v>
+      </c>
       <c r="M24" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="33"/>
+      <c r="N24" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>▣(15.38%)</v>
+      </c>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
     </row>
@@ -10097,7 +10325,10 @@
       <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
@@ -10107,11 +10338,17 @@
       <c r="G25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I25" s="3">
         <v>4000</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8" t="str">
+        <f>LEFT(E25,2) &amp; "(" &amp; COUNTIF($E$4:E25,E25) &amp; ")"</f>
+        <v>직불(5)</v>
+      </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="4" t="s">
@@ -10120,7 +10357,10 @@
       <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
@@ -10130,11 +10370,17 @@
       <c r="G26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I26" s="3">
         <v>81970</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8" t="str">
+        <f>LEFT(E26,2) &amp; "(" &amp; COUNTIF($E$4:E26,E26) &amp; ")"</f>
+        <v>일반(9)</v>
+      </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="4" t="s">
@@ -10143,7 +10389,10 @@
       <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
@@ -10153,11 +10402,17 @@
       <c r="G27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8" t="str">
+        <f>LEFT(E27,2) &amp; "(" &amp; COUNTIF($E$4:E27,E27) &amp; ")"</f>
+        <v>신용(6)</v>
+      </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="4" t="s">
@@ -10166,7 +10421,10 @@
       <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>18</v>
       </c>
@@ -10176,11 +10434,17 @@
       <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I28" s="3">
         <v>111980</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8" t="str">
+        <f>LEFT(E28,2) &amp; "(" &amp; COUNTIF($E$4:E28,E28) &amp; ")"</f>
+        <v>신용(7)</v>
+      </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="4" t="s">
@@ -10189,7 +10453,10 @@
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>18</v>
       </c>
@@ -10199,11 +10466,17 @@
       <c r="G29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I29" s="3">
         <v>213200</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8" t="str">
+        <f>LEFT(E29,2) &amp; "(" &amp; COUNTIF($E$4:E29,E29) &amp; ")"</f>
+        <v>신용(8)</v>
+      </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="4" t="s">
@@ -10212,7 +10485,10 @@
       <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
@@ -10222,11 +10498,17 @@
       <c r="G30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I30" s="3">
         <v>110000</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="8" t="str">
+        <f>LEFT(E30,2) &amp; "(" &amp; COUNTIF($E$4:E30,E30) &amp; ")"</f>
+        <v>지정(2)</v>
+      </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="4" t="s">
@@ -10235,7 +10517,10 @@
       <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E31" s="4" t="s">
         <v>26</v>
       </c>
@@ -10245,11 +10530,17 @@
       <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I31" s="3">
         <v>240000</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8" t="str">
+        <f>LEFT(E31,2) &amp; "(" &amp; COUNTIF($E$4:E31,E31) &amp; ")"</f>
+        <v>지정(3)</v>
+      </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
@@ -10258,7 +10549,10 @@
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E32" s="4" t="s">
         <v>26</v>
       </c>
@@ -10268,11 +10562,17 @@
       <c r="G32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I32" s="3">
         <v>600000</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8" t="str">
+        <f>LEFT(E32,2) &amp; "(" &amp; COUNTIF($E$4:E32,E32) &amp; ")"</f>
+        <v>지정(4)</v>
+      </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4" t="s">
@@ -10281,7 +10581,10 @@
       <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -10291,11 +10594,17 @@
       <c r="G33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I33" s="3">
         <v>62340</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8" t="str">
+        <f>LEFT(E33,2) &amp; "(" &amp; COUNTIF($E$4:E33,E33) &amp; ")"</f>
+        <v>현금(4)</v>
+      </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4" t="s">
@@ -10304,7 +10613,10 @@
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
       </c>
@@ -10314,11 +10626,17 @@
       <c r="G34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I34" s="3">
         <v>213020</v>
       </c>
-      <c r="J34" s="8"/>
+      <c r="J34" s="8" t="str">
+        <f>LEFT(E34,2) &amp; "(" &amp; COUNTIF($E$4:E34,E34) &amp; ")"</f>
+        <v>현금(5)</v>
+      </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4" t="s">
@@ -10327,7 +10645,10 @@
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
@@ -10337,11 +10658,17 @@
       <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I35" s="3">
         <v>1925602</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="8" t="str">
+        <f>LEFT(E35,2) &amp; "(" &amp; COUNTIF($E$4:E35,E35) &amp; ")"</f>
+        <v>신용(9)</v>
+      </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4" t="s">
@@ -10350,7 +10677,10 @@
       <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>18</v>
       </c>
@@ -10360,11 +10690,17 @@
       <c r="G36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I36" s="3">
         <v>2638488</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8" t="str">
+        <f>LEFT(E36,2) &amp; "(" &amp; COUNTIF($E$4:E36,E36) &amp; ")"</f>
+        <v>신용(10)</v>
+      </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4" t="s">
@@ -10373,7 +10709,10 @@
       <c r="C37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>18</v>
       </c>
@@ -10383,11 +10722,17 @@
       <c r="G37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I37" s="3">
         <v>10725504</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="8" t="str">
+        <f>LEFT(E37,2) &amp; "(" &amp; COUNTIF($E$4:E37,E37) &amp; ")"</f>
+        <v>신용(11)</v>
+      </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4" t="s">
@@ -10396,7 +10741,10 @@
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>18</v>
       </c>
@@ -10406,11 +10754,17 @@
       <c r="G38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I38" s="3">
         <v>12127516</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="8" t="str">
+        <f>LEFT(E38,2) &amp; "(" &amp; COUNTIF($E$4:E38,E38) &amp; ")"</f>
+        <v>신용(12)</v>
+      </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4" t="s">
@@ -10419,7 +10773,10 @@
       <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>18</v>
       </c>
@@ -10429,11 +10786,17 @@
       <c r="G39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I39" s="3">
         <v>8000</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="8" t="str">
+        <f>LEFT(E39,2) &amp; "(" &amp; COUNTIF($E$4:E39,E39) &amp; ")"</f>
+        <v>신용(13)</v>
+      </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="4" t="s">
@@ -10442,7 +10805,10 @@
       <c r="C40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>18</v>
       </c>
@@ -10452,11 +10818,17 @@
       <c r="G40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I40" s="3">
         <v>60100</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="8" t="str">
+        <f>LEFT(E40,2) &amp; "(" &amp; COUNTIF($E$4:E40,E40) &amp; ")"</f>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4" t="s">
@@ -10465,7 +10837,10 @@
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
@@ -10475,11 +10850,17 @@
       <c r="G41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I41" s="3">
         <v>59400</v>
       </c>
-      <c r="J41" s="8"/>
+      <c r="J41" s="8" t="str">
+        <f>LEFT(E41,2) &amp; "(" &amp; COUNTIF($E$4:E41,E41) &amp; ")"</f>
+        <v>일반(10)</v>
+      </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
@@ -10488,7 +10869,10 @@
       <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>16</v>
       </c>
@@ -10498,11 +10882,17 @@
       <c r="G42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I42" s="3">
         <v>103400</v>
       </c>
-      <c r="J42" s="8"/>
+      <c r="J42" s="8" t="str">
+        <f>LEFT(E42,2) &amp; "(" &amp; COUNTIF($E$4:E42,E42) &amp; ")"</f>
+        <v>일반(11)</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -10518,7 +10908,7 @@
   <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -11051,11 +11441,11 @@
         <v>18</v>
       </c>
       <c r="N14" s="31">
-        <f t="shared" ref="N14:P15" si="2">IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,N$13),-2),"")</f>
+        <f>IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,N$13),-2),"")</f>
         <v>4948700</v>
       </c>
       <c r="O14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N14:P15" si="2">IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,O$13),-2),"")</f>
         <v>79900</v>
       </c>
       <c r="P14" s="31">
@@ -12063,9 +12453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
@@ -12141,7 +12529,7 @@
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="38" t="str">
-        <f>ROW()-3&amp;"-"&amp;VLOOKUP(C4,$K$4:$L$8,2,0)&amp;"("&amp;HLOOKUP(D4,$N$3:$R$4,2,0)&amp;")"</f>
+        <f>ROW()-3 &amp; "-" &amp; VLOOKUP(C4,$K$4:$L$8,2,0) &amp;"(" &amp; HLOOKUP(D4,$O$3:$R$4,2,0) &amp; ")"</f>
         <v>1-E(S)</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -12151,7 +12539,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>TEXT(EDATE(F4,-2),"YY/MM/DD(AAA)")</f>
+        <f>TEXT(EDATE(F4,-2),"yy/mm/dd(aaa)")</f>
         <v>20/11/04(수)</v>
       </c>
       <c r="F4" s="6">
@@ -12164,7 +12552,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="40" t="str">
-        <f>IFERROR(REPT("♠",QUOTIENT(G4/H4,10%))&amp;REPT("♤",10-QUOTIENT(G4/H4,10%)),"초과")</f>
+        <f>IFERROR(REPT("♠",QUOTIENT(G4/H4,10%)) &amp; REPT("♤",10-QUOTIENT(G4/H4,10%)),"초과")</f>
         <v>초과</v>
       </c>
       <c r="K4" s="35" t="s">
@@ -12191,7 +12579,7 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="38" t="str">
-        <f t="shared" ref="B5:B40" si="0">ROW()-3&amp;"-"&amp;VLOOKUP(C5,$K$4:$L$8,2,0)&amp;"("&amp;HLOOKUP(D5,$N$3:$R$4,2,0)&amp;")"</f>
+        <f t="shared" ref="B5:B40" si="0">ROW()-3 &amp; "-" &amp; VLOOKUP(C5,$K$4:$L$8,2,0) &amp;"(" &amp; HLOOKUP(D5,$O$3:$R$4,2,0) &amp; ")"</f>
         <v>2-P(S)</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -12201,7 +12589,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f t="shared" ref="E5:E40" si="1">TEXT(EDATE(F5,-2),"YY/MM/DD(AAA)")</f>
+        <f t="shared" ref="E5:E40" si="1">TEXT(EDATE(F5,-2),"yy/mm/dd(aaa)")</f>
         <v>20/11/04(수)</v>
       </c>
       <c r="F5" s="6">
@@ -12214,7 +12602,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="40" t="str">
-        <f t="shared" ref="I5:I40" si="2">IFERROR(REPT("♠",QUOTIENT(G5/H5,10%))&amp;REPT("♤",10-QUOTIENT(G5/H5,10%)),"초과")</f>
+        <f t="shared" ref="I5:I40" si="2">IFERROR(REPT("♠",QUOTIENT(G5/H5,10%)) &amp; REPT("♤",10-QUOTIENT(G5/H5,10%)),"초과")</f>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
       <c r="K5" s="35" t="s">
@@ -12493,7 +12881,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K13,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" ref="L13:L16" si="3">TEXT(SUMIF($C$4:$C$40,K13,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
         <v>22.01%</v>
       </c>
     </row>
@@ -12529,7 +12917,7 @@
         <v>59</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K14,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" si="3"/>
         <v>10.27%</v>
       </c>
     </row>
@@ -12565,7 +12953,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K15,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" si="3"/>
         <v>23.90%</v>
       </c>
     </row>
@@ -12601,7 +12989,7 @@
         <v>57</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K16,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" si="3"/>
         <v>18.66%</v>
       </c>
     </row>
@@ -13370,7 +13758,7 @@
   <dimension ref="B2:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -13379,7 +13767,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.3125" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5625" customWidth="1"/>
     <col min="11" max="11" width="22.875" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5625" bestFit="1" customWidth="1"/>
@@ -14672,8 +15060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
